--- a/data/trans_bre/P62-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P62-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P62-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P62-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-39,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,31%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,4; -35,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,69; -19,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,8; -20,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,02; -17,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,83; -46,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,88; -29,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,07; -28,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,0; -23,34</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,41</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,98</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,43</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,43</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,2%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,77; -18,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,79; -8,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,04; -10,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,6; 2,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,59; -63,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,27; -33,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,05; -32,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,44; 6,0</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,66%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,36; -9,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,34; -2,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,32; -3,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,52; -13,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,24; -25,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,73; -7,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,64; -12,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,11; -25,95</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,92</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,05</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,25</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,66</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,79%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,87; -26,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,85; -12,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,3; -13,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,01; -5,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,51; -50,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,94; -28,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,96; -29,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,58; -9,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P62-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P62-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-22,49</t>
+          <t>-21,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-28,31%</t>
+          <t>-27,82%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,02; -17,91</t>
+          <t>-26,39; -17,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-33,0; -23,34</t>
+          <t>-32,61; -22,44</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,43</t>
+          <t>-5,47</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-29,2%</t>
+          <t>-12,58%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,6; 2,43</t>
+          <t>-19,02; 17,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,44; 6,0</t>
+          <t>-42,62; 38,19</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-22,69</t>
+          <t>-21,87</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-39,66%</t>
+          <t>-39,04%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,52; -13,44</t>
+          <t>-30,66; -12,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-50,11; -25,95</t>
+          <t>-49,77; -24,9</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-15,66</t>
+          <t>-10,78</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-27,79%</t>
+          <t>-19,93%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,01; -5,61</t>
+          <t>-17,71; 4,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,58; -9,81</t>
+          <t>-32,35; 9,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P62-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P62-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-44,4; -35,55</t>
+          <t>-43,89; -35,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,69; -19,91</t>
+          <t>-28,72; -19,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-30,8; -20,26</t>
+          <t>-30,0; -20,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,39; -17,0</t>
+          <t>-26,69; -17,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-54,83; -46,28</t>
+          <t>-54,51; -46,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,88; -29,81</t>
+          <t>-39,67; -29,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-41,07; -28,77</t>
+          <t>-40,54; -29,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,61; -22,44</t>
+          <t>-32,61; -22,58</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,77; -18,01</t>
+          <t>-26,27; -17,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,79; -8,44</t>
+          <t>-16,1; -8,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,04; -10,49</t>
+          <t>-17,83; -10,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 17,19</t>
+          <t>-18,73; 19,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,59; -63,87</t>
+          <t>-78,33; -64,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,27; -33,58</t>
+          <t>-54,69; -34,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-50,05; -32,64</t>
+          <t>-50,12; -33,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,62; 38,19</t>
+          <t>-42,03; 50,06</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-30,36; -9,02</t>
+          <t>-30,53; -9,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,34; -2,25</t>
+          <t>-21,53; -1,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,32; -3,85</t>
+          <t>-22,79; -3,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,66; -12,73</t>
+          <t>-31,32; -11,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,24; -25,0</t>
+          <t>-63,94; -27,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-62,73; -7,61</t>
+          <t>-62,7; -7,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-55,64; -12,44</t>
+          <t>-56,33; -13,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-49,77; -24,9</t>
+          <t>-50,36; -23,75</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,87; -26,62</t>
+          <t>-32,9; -26,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,85; -12,18</t>
+          <t>-18,17; -12,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,3; -13,21</t>
+          <t>-19,36; -13,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 4,94</t>
+          <t>-17,61; 4,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,51; -50,56</t>
+          <t>-58,44; -50,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,94; -28,67</t>
+          <t>-39,69; -28,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,96; -29,57</t>
+          <t>-40,07; -29,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,35; 9,73</t>
+          <t>-32,11; 8,97</t>
         </is>
       </c>
     </row>
